--- a/src/main/resources/xlsx/pcs/vote_member.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_member.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>中共北京师范大学第十三届委员会委员名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年11月   日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -40,12 +36,16 @@
     <t>经过选举，下列13位同志当选为中国共产党北京师范大学第十三届纪律检查委员会委员（以姓氏比画为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>总监票人：                 总计票人：                 汇总计票人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,21 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -98,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,22 +145,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -434,130 +467,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7">
+        <v>43065</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>43065</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>

--- a/src/main/resources/xlsx/pcs/vote_member.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_member.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221CD5B1-7E1A-4D3C-9487-769453972D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="2160" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,31 +22,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>中共北京师范大学第十三届委员会委员名单</t>
+    <t>总监票人：                 总计票人：                 汇总计票人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经过选举，下列25位同志当选为中国共产党北京师范大学第十三届委员会委员（以姓氏比画为序）：</t>
+    <t>中共XX大学第十三届委员会委员名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共北京师范大学第十三届纪律检查委员会委员名单</t>
+    <t>经过选举，下列25位同志当选为中国共产党XX大学第十三届委员会委员（以姓氏比画为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经过选举，下列13位同志当选为中国共产党北京师范大学第十三届纪律检查委员会委员（以姓氏比画为序）：</t>
+    <t>中共XX大学第十三届纪律检查委员会委员名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总监票人：                 总计票人：                 汇总计票人：</t>
+    <t>经过选举，下列13位同志当选为中国共产党XX大学第十三届纪律检查委员会委员（以姓氏比画为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,29 +467,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.75" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32.25" customHeight="1">
       <c r="A2" s="7">
         <v>43065</v>
       </c>
@@ -497,60 +498,60 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="53.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="39.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>43065</v>
       </c>
@@ -559,39 +560,39 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="53.25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="28.9" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>

--- a/src/main/resources/xlsx/pcs/vote_member.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_member.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221CD5B1-7E1A-4D3C-9487-769453972D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A0E23-10A7-41F5-A92A-64A4B8C1860D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2160" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>总监票人：                 总计票人：                 汇总计票人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共XX大学第十三届委员会委员名单</t>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经过选举，下列25位同志当选为中国共产党XX大学第十三届委员会委员（以姓氏比画为序）：</t>
+    <t>中共school第pcsNum届委员会委员名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共XX大学第十三届纪律检查委员会委员名单</t>
+    <t>经过选举，下列同志当选为中国共产党school第pcsNum届委员会委员（以姓氏比画为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经过选举，下列13位同志当选为中国共产党XX大学第十三届纪律检查委员会委员（以姓氏比画为序）：</t>
+    <t>中共school第pcsNum届纪律检查委员会委员名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过选举，下列同志当选为中国共产党school第pcsNum届纪律检查委员会委员（以姓氏比画为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.75" customHeight="1"/>
@@ -482,7 +486,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -490,8 +494,8 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A2" s="7">
-        <v>43065</v>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -500,7 +504,7 @@
     </row>
     <row r="3" spans="1:5" ht="53.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -544,7 +548,7 @@
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -552,8 +556,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A11" s="7">
-        <v>43065</v>
+      <c r="A11" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -562,7 +566,7 @@
     </row>
     <row r="12" spans="1:5" ht="53.25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
